--- a/data/trans_bre/P27E_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P27E_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -542,119 +551,67 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr"/>
+      <c r="D8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr"/>
+      <c r="D9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -662,90 +619,77 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="inlineStr"/>
+      <c r="D10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="inlineStr"/>
+      <c r="D13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr"/>
+      <c r="D14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr"/>
+      <c r="D15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="5">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P27E_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P27E_R-Estudios-trans_bre.xlsx
@@ -40,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -53,6 +53,34 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -485,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -500,6 +528,10 @@
     <col width="14" customWidth="1" min="2" max="2"/>
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -514,23 +546,47 @@
           <t>Brecha de género absoluta</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -539,6 +595,10 @@
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -551,8 +611,16 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="6" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>5.834832326365053</v>
+      </c>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="6" t="n">
+        <v>0.2542915036589953</v>
+      </c>
+      <c r="G4" s="6" t="inlineStr"/>
+      <c r="H4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -561,8 +629,16 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="6" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-6.360060033581333</v>
+      </c>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="6" t="n">
+        <v>-0.2214401995646025</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -571,8 +647,16 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="6" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>18.03134794055641</v>
+      </c>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="6" t="n">
+        <v>1.048503922848629</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -585,8 +669,16 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="6" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>14.37922602944769</v>
+      </c>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="6" t="n">
+        <v>0.5936902345280451</v>
+      </c>
+      <c r="G7" s="6" t="inlineStr"/>
+      <c r="H7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -595,8 +687,16 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="6" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>6.982444993777115</v>
+      </c>
+      <c r="D8" s="5" t="inlineStr"/>
+      <c r="E8" s="5" t="inlineStr"/>
+      <c r="F8" s="6" t="n">
+        <v>0.2467266561940643</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -605,8 +705,16 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="6" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>21.81702681535821</v>
+      </c>
+      <c r="D9" s="5" t="inlineStr"/>
+      <c r="E9" s="5" t="inlineStr"/>
+      <c r="F9" s="6" t="n">
+        <v>1.084483667439008</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -619,8 +727,16 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="6" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>4.351844564770646</v>
+      </c>
+      <c r="D10" s="5" t="inlineStr"/>
+      <c r="E10" s="5" t="inlineStr"/>
+      <c r="F10" s="6" t="n">
+        <v>0.1346820591726446</v>
+      </c>
+      <c r="G10" s="6" t="inlineStr"/>
+      <c r="H10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -629,8 +745,16 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="6" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-3.985096803778509</v>
+      </c>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="inlineStr"/>
+      <c r="F11" s="6" t="n">
+        <v>-0.1071620531283442</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -639,8 +763,16 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="6" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>12.29316361777057</v>
+      </c>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="inlineStr"/>
+      <c r="F12" s="6" t="n">
+        <v>0.4459331633432769</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -653,8 +785,16 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="6" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>8.699080959778671</v>
+      </c>
+      <c r="D13" s="5" t="inlineStr"/>
+      <c r="E13" s="5" t="inlineStr"/>
+      <c r="F13" s="6" t="n">
+        <v>0.3243108275800747</v>
+      </c>
+      <c r="G13" s="6" t="inlineStr"/>
+      <c r="H13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -663,8 +803,16 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="6" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>3.482719091667367</v>
+      </c>
+      <c r="D14" s="5" t="inlineStr"/>
+      <c r="E14" s="5" t="inlineStr"/>
+      <c r="F14" s="6" t="n">
+        <v>0.1197540431696012</v>
+      </c>
+      <c r="G14" s="6" t="inlineStr"/>
+      <c r="H14" s="6" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -673,8 +821,16 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="6" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>13.31512057728743</v>
+      </c>
+      <c r="D15" s="5" t="inlineStr"/>
+      <c r="E15" s="5" t="inlineStr"/>
+      <c r="F15" s="6" t="n">
+        <v>0.5498959325070888</v>
+      </c>
+      <c r="G15" s="6" t="inlineStr"/>
+      <c r="H15" s="6" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -684,10 +840,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A13:A15"/>
   </mergeCells>
